--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/99/word_level_predictions_99.xlsx
@@ -5182,210 +5182,210 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C92" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D92" t="n">
+      <c r="D92" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E92" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G92" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I92" t="b">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K92" t="b">
-        <v>1</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I92" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C93" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" t="inlineStr">
+      <c r="D93" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I93" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>installed</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I93" t="b">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K93" t="b">
-        <v>1</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>installed</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>2</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>4</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11474,522 +11474,522 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>12</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>5</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>12</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>6</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>12</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>7</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>12</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>8</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>12</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>9</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>12</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>10</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" t="n">
         <v>12</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" t="n">
         <v>11</v>
       </c>
-      <c r="E219" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F219" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>12</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>12</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F220" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>12</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" t="n">
         <v>13</v>
       </c>
-      <c r="E221" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>12</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>14</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="F285" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G285" s="2" t="b">
@@ -15253,11 +15253,11 @@
         </is>
       </c>
       <c r="I285" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J285" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K285" s="2" t="b">
@@ -15265,7 +15265,7 @@
       </c>
       <c r="L285" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15305,11 +15305,11 @@
         </is>
       </c>
       <c r="I286" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K286" s="2" t="b">
@@ -15357,11 +15357,11 @@
         </is>
       </c>
       <c r="I287" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J287" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K287" s="2" t="b">
@@ -15409,11 +15409,11 @@
         </is>
       </c>
       <c r="I288" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J288" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K288" s="2" t="b">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/99/word_level_predictions_99.xlsx
@@ -5182,210 +5182,210 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" t="n">
         <v>4</v>
       </c>
-      <c r="B92" s="2" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C92" s="2" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D92" s="2" t="n">
+      <c r="D92" t="n">
         <v>0</v>
       </c>
-      <c r="E92" s="2" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G92" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I92" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L92" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" t="n">
         <v>4</v>
       </c>
-      <c r="B93" s="2" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C93" s="2" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D93" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" s="2" t="inlineStr">
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F93" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G93" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I93" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L93" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" t="n">
         <v>4</v>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" t="n">
         <v>2</v>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>4</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" t="n">
         <v>3</v>
       </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11474,522 +11474,522 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E213" t="inlineStr">
+      <c r="E213" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
+      <c r="A219" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B219" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="C219" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D219" t="n">
+      <c r="D219" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K219" t="b">
-        <v>1</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" s="2" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E220" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E221" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
+      <c r="A222" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B222" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C222" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D222" t="n">
+      <c r="D222" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E222" t="inlineStr">
+      <c r="E222" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="F285" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G285" s="2" t="b">
@@ -15253,11 +15253,11 @@
         </is>
       </c>
       <c r="I285" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J285" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K285" s="2" t="b">
@@ -15265,7 +15265,7 @@
       </c>
       <c r="L285" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -15305,11 +15305,11 @@
         </is>
       </c>
       <c r="I286" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J286" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K286" s="2" t="b">
@@ -15357,11 +15357,11 @@
         </is>
       </c>
       <c r="I287" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J287" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K287" s="2" t="b">
@@ -15409,11 +15409,11 @@
         </is>
       </c>
       <c r="I288" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J288" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K288" s="2" t="b">
